--- a/src/main/resources/Excel/Ditu.xlsx
+++ b/src/main/resources/Excel/Ditu.xlsx
@@ -33,7 +33,7 @@
     <t>wbl1</t>
   </si>
   <si>
-    <t>主城(id=1)-&gt;渡劫地图(id=2001)</t>
+    <t>主城(id=1)-&gt;个人boss(id=2001）</t>
   </si>
   <si>
     <t>詹姆斯</t>
@@ -53,9 +53,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -75,14 +75,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,44 +188,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -150,31 +197,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,29 +206,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,97 +220,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,85 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,20 +414,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,17 +453,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,6 +479,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -498,16 +498,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,133 +531,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,13 +1016,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="3" width="9.11111111111111" customWidth="1"/>
-    <col min="4" max="4" width="32.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="45.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/src/main/resources/Excel/Ditu.xlsx
+++ b/src/main/resources/Excel/Ditu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8555"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="ditu" sheetId="1" r:id="rId1"/>
@@ -33,19 +33,19 @@
     <t>wbl1</t>
   </si>
   <si>
-    <t>主城(id=1)-&gt;个人boss(id=2001）</t>
+    <t>bosss地图</t>
   </si>
   <si>
     <t>詹姆斯</t>
   </si>
   <si>
-    <t>主城(id=1)-&gt;百美图(id=2002)</t>
+    <t>百美图</t>
   </si>
   <si>
     <t>wbl3</t>
   </si>
   <si>
-    <t>主城(id=1)-&gt;激战Boss(id=2005)</t>
+    <t>雷霆塔</t>
   </si>
 </sst>
 </file>
@@ -54,8 +54,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -74,6 +74,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -81,15 +89,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,7 +99,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,9 +122,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,53 +138,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,9 +174,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,14 +206,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,187 +220,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,6 +411,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,17 +438,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,11 +458,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,17 +497,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -519,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,133 +531,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,13 +1016,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="3" width="9.11111111111111" customWidth="1"/>
-    <col min="4" max="4" width="45.1111111111111" customWidth="1"/>
+    <col min="2" max="3" width="9.10833333333333" customWidth="1"/>
+    <col min="4" max="4" width="45.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1097,7 +1097,7 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1114,7 +1114,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/Excel/Ditu.xlsx
+++ b/src/main/resources/Excel/Ditu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="21216" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="ditu" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <t>wbl1</t>
   </si>
   <si>
-    <t>bosss地图</t>
+    <t>个人boss副本</t>
   </si>
   <si>
     <t>詹姆斯</t>
@@ -53,8 +53,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -67,8 +67,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,93 +189,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,36 +206,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,13 +220,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,169 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,56 +419,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,6 +448,56 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -519,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,133 +531,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,13 +1016,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="3" width="9.10833333333333" customWidth="1"/>
-    <col min="4" max="4" width="45.1083333333333" customWidth="1"/>
+    <col min="2" max="3" width="9.11111111111111" customWidth="1"/>
+    <col min="4" max="4" width="45.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1097,7 +1097,7 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1114,7 +1114,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/Excel/Ditu.xlsx
+++ b/src/main/resources/Excel/Ditu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="9120"/>
+    <workbookView windowWidth="19890" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="ditu" sheetId="1" r:id="rId1"/>
@@ -16,33 +16,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>mid</t>
   </si>
   <si>
-    <t>username</t>
+    <t>name</t>
   </si>
   <si>
-    <t>nid</t>
+    <t>neighbor</t>
   </si>
   <si>
-    <t>neigbor</t>
-  </si>
-  <si>
-    <t>wbl1</t>
+    <t>起始村</t>
   </si>
   <si>
     <t>个人boss副本</t>
   </si>
   <si>
-    <t>詹姆斯</t>
+    <t>遗迹层</t>
   </si>
   <si>
     <t>百美图</t>
   </si>
   <si>
-    <t>wbl3</t>
+    <t>世界boss图</t>
   </si>
   <si>
     <t>雷霆塔</t>
@@ -67,24 +64,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,9 +80,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,7 +102,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,46 +124,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,6 +147,37 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -191,21 +187,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,187 +217,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,15 +408,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,8 +429,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,26 +468,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -493,6 +479,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,133 +528,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,19 +1010,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="3" width="9.11111111111111" customWidth="1"/>
-    <col min="4" max="4" width="45.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="45.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1035,50 +1032,38 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>2001</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>2002</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4">
-        <v>2005</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1082,7 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1114,7 +1099,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/Excel/Ditu.xlsx
+++ b/src/main/resources/Excel/Ditu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7590"/>
+    <workbookView windowWidth="21216" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="ditu" sheetId="1" r:id="rId1"/>
@@ -16,33 +16,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>mid</t>
   </si>
   <si>
-    <t>name</t>
+    <t>mname</t>
+  </si>
+  <si>
+    <t>des</t>
   </si>
   <si>
     <t>neighbor</t>
   </si>
   <si>
-    <t>起始村</t>
+    <t>monsterStr</t>
   </si>
   <si>
-    <t>个人boss副本</t>
+    <t>起始之地</t>
   </si>
   <si>
-    <t>遗迹层</t>
+    <t>出生的地点</t>
   </si>
   <si>
-    <t>百美图</t>
+    <t>魔化之地</t>
   </si>
   <si>
-    <t>世界boss图</t>
+    <t>[{"id":1,"count":3}]</t>
+  </si>
+  <si>
+    <t>机遇很多</t>
   </si>
   <si>
     <t>雷霆塔</t>
+  </si>
+  <si>
+    <t>[{"id":1,"count":1},{"id":2,"count":2}]</t>
   </si>
 </sst>
 </file>
@@ -50,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -64,6 +73,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -72,15 +112,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,29 +140,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,6 +169,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,9 +187,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,61 +196,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,31 +226,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,151 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,6 +417,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -422,33 +451,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,11 +487,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,10 +525,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,133 +537,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,19 +1019,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="45.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="45.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="45.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1032,38 +1043,45 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +1100,7 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1099,7 +1117,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/Excel/Ditu.xlsx
+++ b/src/main/resources/Excel/Ditu.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>mid</t>
   </si>
@@ -44,24 +44,15 @@
   <si>
     <t>[{"id":1,"count":3}]</t>
   </si>
-  <si>
-    <t>机遇很多</t>
-  </si>
-  <si>
-    <t>雷霆塔</t>
-  </si>
-  <si>
-    <t>[{"id":1,"count":1},{"id":2,"count":2}]</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -73,9 +64,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,6 +93,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -98,35 +109,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,40 +146,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,31 +200,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,37 +217,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,145 +391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,20 +413,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,25 +466,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,17 +500,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,133 +528,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,13 +1010,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="45.1111111111111" customWidth="1"/>
@@ -1065,23 +1056,6 @@
       </c>
       <c r="E2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Excel/Ditu.xlsx
+++ b/src/main/resources/Excel/Ditu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="8280"/>
+    <workbookView windowWidth="21216" windowHeight="6912"/>
   </bookViews>
   <sheets>
     <sheet name="ditu" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>mid</t>
   </si>
@@ -42,7 +42,13 @@
     <t>魔化之地</t>
   </si>
   <si>
-    <t>[{"id":1,"count":3}]</t>
+    <t>[{"id":1,"count":3}][{"id":2,"count":2}]</t>
+  </si>
+  <si>
+    <t>哈哈</t>
+  </si>
+  <si>
+    <t>[{"id":1,"count":3}][{"id":2,"count":1}]</t>
   </si>
 </sst>
 </file>
@@ -50,10 +56,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,6 +71,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -72,14 +115,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,13 +151,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -108,87 +159,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,6 +182,37 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -217,25 +223,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,157 +397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,10 +417,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -450,17 +491,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,35 +514,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -516,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,133 +534,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,13 +1016,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="45.1111111111111" customWidth="1"/>
@@ -1056,6 +1062,23 @@
       </c>
       <c r="E2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Excel/Ditu.xlsx
+++ b/src/main/resources/Excel/Ditu.xlsx
@@ -4,27 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="6912"/>
+    <workbookView windowWidth="17040" windowHeight="9155"/>
   </bookViews>
   <sheets>
-    <sheet name="ditu" sheetId="1" r:id="rId1"/>
-    <sheet name="hh" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Ditu" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>mid</t>
   </si>
   <si>
     <t>mname</t>
-  </si>
-  <si>
-    <t>des</t>
   </si>
   <si>
     <t>neighbor</t>
@@ -36,16 +31,10 @@
     <t>起始之地</t>
   </si>
   <si>
-    <t>出生的地点</t>
-  </si>
-  <si>
     <t>魔化之地</t>
   </si>
   <si>
     <t>[{"id":1,"count":3}][{"id":2,"count":2}]</t>
-  </si>
-  <si>
-    <t>哈哈</t>
   </si>
   <si>
     <t>[{"id":1,"count":3}][{"id":2,"count":1}]</t>
@@ -56,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -77,8 +66,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,37 +179,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,69 +202,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -223,13 +212,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,55 +296,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,96 +393,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,6 +403,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,15 +444,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -452,26 +452,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,15 +474,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -514,6 +488,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,10 +511,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,133 +523,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,21 +1005,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="45.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="45.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="45.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1043,42 +1031,33 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1086,38 +1065,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>